--- a/基金课程/投资计划.xlsx
+++ b/基金课程/投资计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13020" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1092,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
@@ -1149,6 +1149,12 @@
       <c r="E2" s="2">
         <v>0.8</v>
       </c>
+      <c r="F2" s="1">
+        <v>1625.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1627.5</v>
+      </c>
       <c r="H2" s="1">
         <v>1000000</v>
       </c>

--- a/基金课程/投资计划.xlsx
+++ b/基金课程/投资计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>时间</t>
   </si>
@@ -47,16 +47,19 @@
   <si>
     <t>2019.12.09</t>
   </si>
+  <si>
+    <t>2020.01.08</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +70,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -74,8 +122,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,21 +185,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,71 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,28 +213,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +414,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,32 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,166 +514,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,9 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,13 +1009,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.6428571428571" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.14285714285714" style="1"/>
@@ -1023,32 +1023,32 @@
     <col min="6" max="9" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1078,6 +1078,35 @@
         <v>100000</v>
       </c>
       <c r="I2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>510880</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3553.24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3524.4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7048.8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1090,13 +1119,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.6428571428571" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.14285714285714" style="1"/>
@@ -1153,12 +1182,41 @@
         <v>1625.4</v>
       </c>
       <c r="G2" s="1">
-        <v>1627.5</v>
+        <v>1625.5</v>
       </c>
       <c r="H2" s="1">
         <v>1000000</v>
       </c>
       <c r="I2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>510500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2076.91</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1785.9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3571.8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I3" s="1">
         <v>13</v>
       </c>
     </row>
